--- a/Aufgabe07/Bewertung.xlsx
+++ b/Aufgabe07/Bewertung.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A31FF-99BB-4491-950D-0999D27D457D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C333A4F-EEE0-4E00-9694-E790AC140C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="127">
   <si>
     <t>User Id</t>
   </si>
@@ -537,6 +529,15 @@
   </si>
   <si>
     <t>VS Code</t>
+  </si>
+  <si>
+    <t>Abzug wegen verspätete Abgabe</t>
+  </si>
+  <si>
+    <t>rekursives Include in der DynVector-Datei</t>
+  </si>
+  <si>
+    <t>Die Csv-Datei war nicht vorhanden. Die anderen aber schon; Nur 5 Punkte statt eigentlich 10 abgezogen</t>
   </si>
 </sst>
 </file>
@@ -648,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -695,6 +696,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,43 +1305,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
+      <c r="B13" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
       </c>
       <c r="D13" s="7">
         <f>IF(B13="yes",C13,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>114</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
+      <c r="B14" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="15">
-        <f>IF(B14="yes",C14,-10)</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="25" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1355,6 +1367,7 @@
       <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1362,6 +1375,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1379,26 +1393,30 @@
       <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="15">
         <f>IF(B18="yes",C18,-5)</f>
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1418,7 +1436,7 @@
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1912,7 +1930,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7">
         <f>MAX(0,SUM(D13:D47))</f>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -1934,7 +1952,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="17">
         <f>IF(B54="Bachelor",D53/(D52),D53/(D52))</f>
-        <v>1</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E55" s="3"/>
     </row>
